--- a/Acervbagtogenotype.xlsx
+++ b/Acervbagtogenotype.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
   <si>
     <t>Nursery</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Nursery Locations</t>
+  </si>
+  <si>
+    <t>Trying to narrow exactly</t>
   </si>
 </sst>
 </file>
@@ -303,12 +306,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -332,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -376,6 +385,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,7 +769,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1018,7 @@
       <c r="A8" s="2">
         <v>1745</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1260,7 +1276,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1758</v>
       </c>
@@ -1289,7 +1305,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1728</v>
       </c>
@@ -1318,7 +1334,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1733</v>
       </c>
@@ -1350,7 +1366,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1735</v>
       </c>
@@ -1379,17 +1395,17 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1730</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
@@ -1411,7 +1427,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1727</v>
       </c>
@@ -1443,7 +1459,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1732</v>
       </c>
@@ -1472,7 +1488,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1734</v>
       </c>
@@ -1501,7 +1517,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1729</v>
       </c>
@@ -1530,7 +1546,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1731</v>
       </c>
@@ -1560,7 +1576,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1721</v>
       </c>
@@ -1586,7 +1602,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1738</v>
       </c>
@@ -1612,7 +1628,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1725</v>
       </c>
@@ -1637,8 +1653,11 @@
       <c r="L29" s="14">
         <v>2017</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1739</v>
       </c>
@@ -1663,8 +1682,11 @@
       <c r="L30" s="14">
         <v>2017</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1736</v>
       </c>
@@ -1689,8 +1711,11 @@
       <c r="L31" s="14">
         <v>2017</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1737</v>
       </c>
@@ -1714,6 +1739,9 @@
       </c>
       <c r="L32" s="14">
         <v>2017</v>
+      </c>
+      <c r="M32" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
